--- a/outputs-r202/g__RUG033_train.xlsx
+++ b/outputs-r202/g__RUG033_train.xlsx
@@ -567,7 +567,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_15.fasta</t>
+          <t>GB_GCA_900314665.1_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_4.fasta</t>
+          <t>GB_GCA_900314665.1_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -603,7 +603,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_7.fasta</t>
+          <t>GB_GCA_902797245.1_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -621,7 +621,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_12.fasta</t>
+          <t>GB_GCA_902797245.1_16.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -639,7 +639,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_6.fasta</t>
+          <t>GB_GCA_902797245.1_2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -657,7 +657,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_7.fasta</t>
+          <t>GB_GCA_902797245.1_4.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -675,7 +675,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_10.fasta</t>
+          <t>GB_GCA_900314665.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -693,7 +693,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_12.fasta</t>
+          <t>GB_GCA_900314665.1_17.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -711,7 +711,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_14.fasta</t>
+          <t>GB_GCA_900314665.1_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -729,7 +729,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_6.fasta</t>
+          <t>GB_GCA_902797245.1_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -747,7 +747,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_10.fasta</t>
+          <t>GB_GCA_902797245.1_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -765,7 +765,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_13.fasta</t>
+          <t>GB_GCA_902797245.1_3.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -891,7 +891,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_11.fasta</t>
+          <t>GB_GCA_900314665.1_10.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -909,7 +909,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_17.fasta</t>
+          <t>GB_GCA_900314665.1_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -927,7 +927,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_3.fasta</t>
+          <t>GB_GCA_900314665.1_14.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -945,7 +945,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_14.fasta</t>
+          <t>GB_GCA_900314665.1_6.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -963,7 +963,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_17.fasta</t>
+          <t>GB_GCA_902797245.1_10.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -981,7 +981,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_3.fasta</t>
+          <t>GB_GCA_902797245.1_13.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -999,7 +999,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_2.fasta</t>
+          <t>GB_GCA_900314665.1_15.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1017,7 +1017,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_5.fasta</t>
+          <t>GB_GCA_900314665.1_4.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1035,7 +1035,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_11.fasta</t>
+          <t>GB_GCA_900314665.1_7.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1053,7 +1053,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_16.fasta</t>
+          <t>GB_GCA_902797245.1_12.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1071,7 +1071,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_2.fasta</t>
+          <t>GB_GCA_902797245.1_6.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1089,7 +1089,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_902797245.1_4.fasta</t>
+          <t>GB_GCA_902797245.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
